--- a/data/trans_orig/DUR_SUEÑO_FINDE-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/DUR_SUEÑO_FINDE-Estudios-trans_orig.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Media" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Media" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -37,7 +39,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -51,69 +53,6 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -126,11 +65,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -521,65 +460,65 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Promedio de horas de sueño/finde (tasa de respuesta: 98,45%)</t>
+          <t>Promedio de horas de sueño/finde (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Hombre</t>
         </is>
       </c>
-      <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="D1" s="2" t="n"/>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="H1" s="2" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="n"/>
+      <c r="A2" s="3" t="n"/>
       <c r="B2" s="2" t="n"/>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>Andalucía</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>Andalucía</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>Andalucía</t>
+        </is>
+      </c>
+      <c r="H2" s="2" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
     </row>
     <row r="3" hidden="1">
-      <c r="A3" s="4" t="n"/>
+      <c r="A3" s="3" t="n"/>
       <c r="B3" s="2" t="n"/>
       <c r="C3" s="2" t="n"/>
       <c r="D3" s="2" t="n"/>
@@ -589,327 +528,335 @@
       <c r="H3" s="2" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" s="3" t="inlineStr">
         <is>
           <t>Hasta primaria</t>
         </is>
       </c>
-      <c r="B4" s="3" t="inlineStr">
+      <c r="B4" s="2" t="inlineStr">
         <is>
           <t>Media</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>7,3</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>7,41</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>7,16</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>7,2</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>7,22</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>7,28</t>
-        </is>
+      <c r="C4" s="4" t="n">
+        <v>7.25549877882777</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>7.327059400624363</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>7.139129452748207</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>7.160828113413601</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>7.181307034003217</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>7.224867090956338</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n"/>
-      <c r="B5" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>7,15; 7,45</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>7,2; 7,62</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>7,06; 7,26</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>6,97; 7,41</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>7,13; 7,3</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>7,11; 7,44</t>
-        </is>
+      <c r="A5" s="3" t="n"/>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>7.092074606765996</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>7.092741055162859</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>7.022339597718706</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>6.948163874987713</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>7.092049188245531</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>7.073302711322953</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="3" t="n"/>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>7.413364633868129</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>7.540639546440167</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>7.254416545462846</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>7.370289865668136</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>7.276910122811904</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>7.39632404687023</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
         <is>
           <t>Secundaria</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="2" t="inlineStr">
         <is>
           <t>Media</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>7,45</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>7,69</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>7,37</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>7,54</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>7,41</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>7,61</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>7,37; 7,54</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>7,59; 7,78</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>7,3; 7,44</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>7,43; 7,64</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>7,36; 7,46</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>7,53; 7,68</t>
-        </is>
+      <c r="C7" s="4" t="n">
+        <v>7.457602718762541</v>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>7.68126961042862</v>
+      </c>
+      <c r="E7" s="4" t="n">
+        <v>7.367142674623565</v>
+      </c>
+      <c r="F7" s="4" t="n">
+        <v>7.541410882755407</v>
+      </c>
+      <c r="G7" s="4" t="n">
+        <v>7.412419577662048</v>
+      </c>
+      <c r="H7" s="4" t="n">
+        <v>7.612005785416252</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
+      <c r="A8" s="3" t="n"/>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="n">
+        <v>7.351302999861131</v>
+      </c>
+      <c r="D8" s="4" t="n">
+        <v>7.581222056821417</v>
+      </c>
+      <c r="E8" s="4" t="n">
+        <v>7.284133710120985</v>
+      </c>
+      <c r="F8" s="4" t="n">
+        <v>7.441958694827772</v>
+      </c>
+      <c r="G8" s="4" t="n">
+        <v>7.34872644217945</v>
+      </c>
+      <c r="H8" s="4" t="n">
+        <v>7.533212647803466</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="n"/>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="n">
+        <v>7.54704855998799</v>
+      </c>
+      <c r="D9" s="4" t="n">
+        <v>7.779859969420557</v>
+      </c>
+      <c r="E9" s="4" t="n">
+        <v>7.444536606507869</v>
+      </c>
+      <c r="F9" s="4" t="n">
+        <v>7.655136274920397</v>
+      </c>
+      <c r="G9" s="4" t="n">
+        <v>7.47399946906748</v>
+      </c>
+      <c r="H9" s="4" t="n">
+        <v>7.692597183900626</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
         <is>
           <t>Estudios universitarios</t>
         </is>
       </c>
-      <c r="B8" s="3" t="inlineStr">
+      <c r="B10" s="2" t="inlineStr">
         <is>
           <t>Media</t>
         </is>
       </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>7,37</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>7,74</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>7,38</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>7,76</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>7,38</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>7,75</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n"/>
-      <c r="B9" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>7,26; 7,47</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>7,61; 7,87</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>7,28; 7,49</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>7,64; 7,89</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>7,3; 7,46</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>7,67; 7,84</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
+      <c r="C10" s="4" t="n">
+        <v>7.335800719596767</v>
+      </c>
+      <c r="D10" s="4" t="n">
+        <v>7.744012066734284</v>
+      </c>
+      <c r="E10" s="4" t="n">
+        <v>7.383374033653797</v>
+      </c>
+      <c r="F10" s="4" t="n">
+        <v>7.724447002577101</v>
+      </c>
+      <c r="G10" s="4" t="n">
+        <v>7.359202913578837</v>
+      </c>
+      <c r="H10" s="4" t="n">
+        <v>7.733403542979717</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="n"/>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="4" t="n">
+        <v>7.21995633432888</v>
+      </c>
+      <c r="D11" s="4" t="n">
+        <v>7.599817681187806</v>
+      </c>
+      <c r="E11" s="4" t="n">
+        <v>7.283481259096994</v>
+      </c>
+      <c r="F11" s="4" t="n">
+        <v>7.60329257012534</v>
+      </c>
+      <c r="G11" s="4" t="n">
+        <v>7.280082635534958</v>
+      </c>
+      <c r="H11" s="4" t="n">
+        <v>7.632549326977604</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="n"/>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="4" t="n">
+        <v>7.451791202958447</v>
+      </c>
+      <c r="D12" s="4" t="n">
+        <v>7.877632724689771</v>
+      </c>
+      <c r="E12" s="4" t="n">
+        <v>7.504408450055771</v>
+      </c>
+      <c r="F12" s="4" t="n">
+        <v>7.848269034871082</v>
+      </c>
+      <c r="G12" s="4" t="n">
+        <v>7.439126844331797</v>
+      </c>
+      <c r="H12" s="4" t="n">
+        <v>7.819522381206946</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B10" s="3" t="inlineStr">
+      <c r="B13" s="2" t="inlineStr">
         <is>
           <t>Media</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>7,41</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>7,68</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>7,33</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>7,56</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>7,37</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>7,61</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n"/>
-      <c r="B11" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>7,35; 7,47</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>7,6; 7,75</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>7,28; 7,39</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>7,49; 7,63</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>7,33; 7,41</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>7,56; 7,66</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="C13" s="4" t="n">
+        <v>7.401485606923651</v>
+      </c>
+      <c r="D13" s="4" t="n">
+        <v>7.664117850669363</v>
+      </c>
+      <c r="E13" s="4" t="n">
+        <v>7.328333465493461</v>
+      </c>
+      <c r="F13" s="4" t="n">
+        <v>7.542499714702017</v>
+      </c>
+      <c r="G13" s="4" t="n">
+        <v>7.363548680501488</v>
+      </c>
+      <c r="H13" s="4" t="n">
+        <v>7.600457772159793</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="n"/>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="4" t="n">
+        <v>7.335089213484826</v>
+      </c>
+      <c r="D14" s="4" t="n">
+        <v>7.596853978776471</v>
+      </c>
+      <c r="E14" s="4" t="n">
+        <v>7.263365020980157</v>
+      </c>
+      <c r="F14" s="4" t="n">
+        <v>7.465525877042666</v>
+      </c>
+      <c r="G14" s="4" t="n">
+        <v>7.32126438446043</v>
+      </c>
+      <c r="H14" s="4" t="n">
+        <v>7.54612573311303</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="n"/>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="4" t="n">
+        <v>7.472029725759791</v>
+      </c>
+      <c r="D15" s="4" t="n">
+        <v>7.745135369809587</v>
+      </c>
+      <c r="E15" s="4" t="n">
+        <v>7.380364957343634</v>
+      </c>
+      <c r="F15" s="4" t="n">
+        <v>7.618591674270426</v>
+      </c>
+      <c r="G15" s="4" t="n">
+        <v>7.411565854317049</v>
+      </c>
+      <c r="H15" s="4" t="n">
+        <v>7.658297514629046</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
         </is>
@@ -917,14 +864,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A4:A5"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
